--- a/Project 2 Front End.xlsx
+++ b/Project 2 Front End.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="MENU BUTTONS" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="front-end buttons" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>made by SQL</t>
   </si>
@@ -137,7 +137,7 @@
     <t>3 tenders, 1 fries, 1 meal tray, 1 napkin, 1 salt, 1 pepper, 1 ketchup, 1 mustard, 1 mayo, 2 sauces of ( ketchup, mustard, mayo, ranch, honey bbq )</t>
   </si>
   <si>
-    <t>(x,y can be 1026,1027,1028,1029,1030,1031 ) UPDATE entrees SET inventory = inventory - 1 where entrees.id in (1018,1020,1021,1022,1023,1024); Update sauces set inventory = inventory - 1 where sauces.id in(x,y); Update entrees set inventory = inventory - 3 where entrees.id = 1009;</t>
+    <t>(x,y can be 1026-1031 ) UPDATE entrees SET inventory = inventory - 1 where entrees.id in (1018,1020,1021,1022,1023,1024); Update sauces set inventory = inventory - 1 where sauces.id in(x,y); Update entrees set inventory = inventory - 3 where entrees.id = 1009;</t>
   </si>
   <si>
     <t>1007, 1012, 1020, 1021, 1022, 1023, 1024, 1026, 1031</t>
@@ -170,7 +170,7 @@
     <t>1 dessert cup, 1 of ( chocolate, vanilla, strawberry  ), 1 utensils</t>
   </si>
   <si>
-    <t>(x can be 1032, 1033, 1034) UPDATE desserts SET inventory = inventory - 1 where desserts.id in (x, 1036); UPDATE entrees SET inventory = inventory - 1 where entrees.id in (1023);</t>
+    <t>(x can be 1032-1034) UPDATE desserts SET inventory = inventory - 1 where desserts.id in (x, 1036); UPDATE entrees SET inventory = inventory - 1 where entrees.id in (1023);</t>
   </si>
   <si>
     <t>1024, 1033, 1035, 1037</t>
@@ -182,6 +182,9 @@
     <t>2 cookies, 1 vanilla, 1 desert bowl, 1 napkins</t>
   </si>
   <si>
+    <t>UPDATE desserts SET inventory = inventory - 2 where desserts.id in (1038); UPDATE desserts SET inventory = inventory - 1 where desserts.id in (1033, 1037); UPDATE entrees SET inventory = inventory - 1 where entrees.id in (1024);</t>
+  </si>
+  <si>
     <t>1018, 1020, 1021, 1022, 1024</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
     <t>1 fries, 1 meal tray, 1 salt, 1 pepper, 1 napkins</t>
   </si>
   <si>
+    <t>UPDATE entrees SET inventory = inventory - 2 where entrees.id in (1018, 1020, 1021, 1024);</t>
+  </si>
+  <si>
     <t>1006, one of ( 1000, 1001, 1002, 1003, 1004, 1005 )</t>
   </si>
   <si>
@@ -209,6 +215,9 @@
     <t>1 drink cup, 1 of choice ( Pepsi, Diet Pepsi, Gatorade, Mug, Sierra Mist, Brisk )</t>
   </si>
   <si>
+    <t>(x can be 1000-1005) UPDATE drinks SET inventory = inventory - 1 where drinks.id in (x, 1006);</t>
+  </si>
+  <si>
     <t>1023, 1024, one of ( 1032, 1033, 1034 ), 1037</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
   </si>
   <si>
     <t>two of ( chocolate, vanilla, strawberry ) , 1 desert bowl, 1 utensils, 1 napkins</t>
+  </si>
+  <si>
+    <t>UPDATE desserts SET inventory = inventory - 2 where desserts.id in (x, 1037); UPDATE entrees SET inventory = inventory - 1 where entrees.id in (1023, 1024);</t>
   </si>
   <si>
     <t>1018, 1006</t>
@@ -923,16 +935,19 @@
       <c r="G12" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1">
         <v>2.69</v>
@@ -941,38 +956,44 @@
         <v>240.0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>2.45</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1">
         <v>3.29</v>
@@ -981,7 +1002,10 @@
         <v>342.0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -989,24 +1013,24 @@
     </row>
     <row r="19">
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="H20" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -1032,7 +1056,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>12</v>
@@ -1040,7 +1064,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1072,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -1056,7 +1080,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>26</v>
@@ -1064,7 +1088,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
@@ -1080,15 +1104,15 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>46</v>
@@ -1096,47 +1120,47 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
